--- a/Assets/StreamingAssets/Table/FXConfig-.xlsx
+++ b/Assets/StreamingAssets/Table/FXConfig-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4085FA0A-3204-468A-B77A-7D0D570217DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB4404-7039-4249-AB73-9CF9C76879E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="5160" windowWidth="15660" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1545" windowWidth="18495" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,46 @@
   </si>
   <si>
     <t>Rasengan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载标识(对应CharacterID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1016]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,35 +491,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="69.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="24" width="10.625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="69.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" customWidth="1"/>
+    <col min="7" max="25" width="10.625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -500,18 +539,21 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -528,18 +570,21 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -556,18 +601,21 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -584,18 +632,21 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -612,18 +663,21 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -640,18 +694,21 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -668,18 +725,21 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -696,18 +756,21 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -724,18 +787,21 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -752,18 +818,21 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -780,18 +849,21 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -808,18 +880,21 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -836,18 +911,21 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -864,18 +942,21 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -892,18 +973,21 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -920,18 +1004,21 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -948,18 +1035,21 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -976,11 +1066,12 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -997,11 +1088,12 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1018,8 +1110,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1027,14 +1120,15 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1049,8 +1143,9 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1065,8 +1160,9 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1081,8 +1177,9 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1097,8 +1194,9 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1115,8 +1213,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1133,8 +1232,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1151,8 +1251,9 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1169,8 +1270,9 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1187,8 +1289,9 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1205,8 +1308,9 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1223,8 +1327,9 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1241,8 +1346,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1259,8 +1365,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1277,8 +1384,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1295,46 +1403,57 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Table/FXConfig-.xlsx
+++ b/Assets/StreamingAssets/Table/FXConfig-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB4404-7039-4249-AB73-9CF9C76879E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3ABFAF-17B7-4000-94E0-5FA11D62800B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1545" windowWidth="18495" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18420" yWindow="1830" windowWidth="18180" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加载标识(对应CharacterID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loadTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,14 @@
   </si>
   <si>
     <t>[1001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载标识(对应CharacterInfoID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -515,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
@@ -980,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
@@ -1011,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
